--- a/uploads/3/92017.xlsx
+++ b/uploads/3/92017.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gonzalo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\facturacion\uploads\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6000" windowWidth="23040" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="6600" windowWidth="23040" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Factura de cobro</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>pablo@gmail.com</t>
+  </si>
+  <si>
+    <t>Total Facturado</t>
   </si>
 </sst>
 </file>
@@ -467,21 +470,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +507,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -546,7 +555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1006</v>
       </c>
@@ -596,7 +605,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1007</v>
       </c>
@@ -613,7 +622,7 @@
         <v>150000</v>
       </c>
       <c r="F3" s="2">
-        <v>150000</v>
+        <v>383000</v>
       </c>
       <c r="G3" s="2">
         <v>300000</v>
@@ -646,7 +655,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1008</v>
       </c>
@@ -663,7 +672,7 @@
         <v>180000</v>
       </c>
       <c r="F4" s="2">
-        <v>180000</v>
+        <v>413600</v>
       </c>
       <c r="G4" s="2">
         <v>360000</v>
@@ -696,7 +705,7 @@
         <v>590000</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1009</v>
       </c>
@@ -713,7 +722,7 @@
         <v>100000</v>
       </c>
       <c r="F5" s="2">
-        <v>100000</v>
+        <v>232000</v>
       </c>
       <c r="G5" s="2">
         <v>200000</v>
@@ -746,7 +755,7 @@
         <v>212000</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1010</v>
       </c>
@@ -802,7 +811,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1011</v>
       </c>
@@ -852,6 +861,7 @@
         <v>-145000</v>
       </c>
     </row>
+    <row r="8" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>

--- a/uploads/3/92017.xlsx
+++ b/uploads/3/92017.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6600" windowWidth="23040" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="7800" windowWidth="23040" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>Bancolombia</t>
   </si>
   <si>
-    <t>Otros</t>
-  </si>
-  <si>
     <t>PABLO PEREZ PUERTA</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Total Facturado</t>
+  </si>
+  <si>
+    <t>Otro valor</t>
   </si>
 </sst>
 </file>
@@ -472,8 +472,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,6 +488,9 @@
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -507,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -802,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="2">
         <v>30000</v>
@@ -816,10 +819,10 @@
         <v>1011</v>
       </c>
       <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D7">
         <v>405</v>
